--- a/medicine/Handicap/Un_enfant_attend/Un_enfant_attend.xlsx
+++ b/medicine/Handicap/Un_enfant_attend/Un_enfant_attend.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un enfant attend (A Child is Waiting) est un film américain, le troisième réalisé par John Cassavetes après La Ballade des sans-espoir (Too Late Blues) : et avant Faces, sorti aux États-Unis le 13 février 1963 et le 24 octobre 1979 en France.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ted Widdicombe confie son fils Reuben, qu'il considère comme retardé, à la charge de la clinique du Docteur Matthew Clark, qui accueille aussi bien retardés mentaux, autistes et trisomiques. Deux années passent sans que l'enfant ait fait de progrès, il demeure rebelle et refuse de s'intégrer à toute vie de groupe. Jean Hansen, une musicienne désabusée, est engagée dans la clinique pour des séances de musicothérapie. Elle s'attache bientôt à Reuben, et veut absolument, contre l'avis du docteur, rencontrer les parents, dont elle perçoit qu'ils ont sans doute, consciemment ou non, rejeté leur enfant. Elle rencontre Sophie, la mère, qui refuse catégoriquement de voir son fils.
 C'est alors l'affrontement entre le docteur et son employée. Reuben fugue, il est retrouvé. Jean Hansen prépare un spectacle musical où elle va parvenir à capter l'intérêt de l'enfant, au sein de la petite troupe théâtrale, et renoncera à vouloir établir un lien privilégié, mais fusionnel. Le spectacle a lieu devant les parents, dont Ted, qui, très en colère, était venu retirer son fils de l'Institut, et le voit capable de tenir son rôle dans la pièce. À la fin du film, le docteur confie l'accueil du nouvel arrivant à Jean Hansen, acquise à une thérapie plus contrôlée.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Un enfant attend
 Titre original : A Child Is Waiting
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Burt Lancaster : Docteur Matthew Clark
 Judy Garland : Jean Hansen
@@ -630,7 +648,9 @@
           <t>Contexte, tournage et accueil du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">John Cassavetes poursuit avec ce film son approche des grandes compagnies commencée avec La Ballade des sans-espoir (Too Late Blues) et la Paramount Pictures. Ce film sera produit par Stanley Kramer pour United Artists. La confrontation entre le cinéaste et le producteur va tourner rapidement au désastre. Stanley Kramer signera le final cut pour un film dans lequel John Cassavetes ne reconnaît rien de ses intentions: « La différence principale entre mon montage et celui de Stanley Kramer est celle-ci : son montage affirme que les enfants attardés doivent rester dans des maisons spécialisées, et le film que j’ai tourné insiste sur le fait que ces enfants-là sont bien mieux dans leur peau que nombre d’adultes sains de corps et d’esprit. ». Cette version, reniée par son auteur, est évidemment la seule à subsister aujourd'hui.
 Le casting est brillant: Burt Lancaster joue le rôle du docteur. Quant à Judy Garland dans le rôle de Jean Hansen, elle tourne là son dernier film comme actrice dramatique. Suivront une comédie musicale, I Could go on Singing et La Vallée des poupées, dont ses scènes seront supprimées.
